--- a/Documentação/Requisitos.xlsx
+++ b/Documentação/Requisitos.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\harmony_222\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="2" r:id="rId1"/>
-    <sheet name="PRECIFICAÇÃO" sheetId="3" r:id="rId2"/>
+    <sheet name="Project backlog" sheetId="4" r:id="rId2"/>
+    <sheet name="PRECIFICAÇÃO" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Project backlog'!$G$5:$G$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Backlog</t>
   </si>
@@ -163,6 +167,872 @@
   </si>
   <si>
     <t>Produto profissional</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O SITE DEVE ESTAR EM HTML/CSS/JS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O SITE DEVE SER INSTITUCIONAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE CONTER UM PÁGINA "HOME"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE CONTER UM SIMULADOR FINANCEIRO</t>
+    </r>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE CONTER UM LOGIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE CONTER UM CADASTRO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE CONTER UM CAMPO DE "ESQUECEU A SENHA"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O SITE DEVE TER A LOGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O MENU DO SITE DEVE SER RESPONSIVO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O MENU UTILIZA CONFIGURAÇÃO NAVY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER ÁREA DEDICADA "SOBRE NÓS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER ÁREA DEDICADA "DESENVOLVEDORES"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - NO FIM DA PÁGINA TER A ÁREA DE CONTATOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - AO LADO DOS CONTATOS O SIMULADOR FINANCEIRO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - NO SIMULADOR FINANCEIRO  O CÁLCULO DE ALGO RELACIONADO AO TEMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER A ENTRADA DE VALOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - RESULTADO DO CALCULO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER VINCULO COM REDES SOCIAIS NO LOGIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER NOME DE USUÁRIO/TELEFONE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER A OPÇÃO DE EMAIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER SENHA</t>
+    </r>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Não funcional</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - AREA DEDICADA PARA "ESQUECI A SENHA"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - AREA DEDICADA PARA "CADASTRAR-SE"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - NO CADASTRO DEVE HAVER O NOME COMPLETO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -NO CADASTRO DEVE HAVER O TELEFONE DO USUÁRIO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NO CADASTRO DEVE HAVER O REGISTRO DE SENHA/CONFIRMAÇÃO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - NO CADASTRO DEVE HAVER O CPF/CNPJ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NO CADASTRO DEVE HAVER A DATA DE NASCIMENTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -NO CADASTRO DEVE HAVER OS TERMOS DE USO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  FORMULÁRIO COM INPUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - VERIFICAÇÃO DO CPF PARA RECUPERAÇÃO DE SENHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - TER O ENVIO DE CONFIRMAÇÃO NO EMAIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER O CAMPO DE CRIAÇÃO DE UMA NOVA SENHA </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- DEVE HAVER O CAMPO DE CONFIRMAÇÃO DA SENHA CRIADA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-NO SIMULADOR FINACEIRO DEVE HAVER UMA ENTRADA DE TEXTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-NO SIMULADOR FINACEIRO DEVE HAVER UMA LISTA PARA INFORMAR SEU INSTRUMENTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-NO SIMULADOR FINANCEIRO APARECERÃO OS VALORES DOS INSTRUMENTOS </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-NO SIMULADOR FINANCEIRO APARECERA O VALOR ECONOMIZADO</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -172,7 +1042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +1073,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +1118,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -585,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -690,6 +1585,15 @@
     <xf numFmtId="44" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,16 +1615,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -998,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1011,18 +1933,18 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
@@ -1031,7 +1953,7 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="39"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
         <v>25</v>
@@ -1044,7 +1966,7 @@
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="39"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
         <v>26</v>
@@ -1057,7 +1979,7 @@
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="39"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
         <v>27</v>
@@ -1070,7 +1992,7 @@
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -1079,7 +2001,7 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -1088,15 +2010,15 @@
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
@@ -1105,7 +2027,7 @@
       <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1114,7 +2036,7 @@
       <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1123,7 +2045,7 @@
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1132,7 +2054,7 @@
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1141,7 +2063,7 @@
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1150,14 +2072,14 @@
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -1166,7 +2088,7 @@
       <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
@@ -1175,7 +2097,7 @@
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
@@ -1184,7 +2106,7 @@
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
@@ -1193,7 +2115,7 @@
       <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1208,6 +2130,595 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G5:G6"/>
+  <conditionalFormatting sqref="D2:D39">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="ANDAMENTO">
+      <formula>NOT(ISERROR(SEARCH("ANDAMENTO",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="PENDENTE">
+      <formula>NOT(ISERROR(SEARCH("PENDENTE",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+      <formula1>$X$1:$X$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B8 B31:B39">
+      <formula1>$Y$1:$Y$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C19"/>
   <sheetViews>
